--- a/DATA/body_weights.xlsx
+++ b/DATA/body_weights.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tarudutt/Documents/IMPAc_TB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SarahCooper/Desktop/IMPAcTB/CODING-TEAM-BOOKDOWN-/DATA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20307579-A15E-6245-AD9F-62E669E2FDBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D7C23A-1ABD-6341-8FF3-2842510E683A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16400" xr2:uid="{EF754327-75C9-0D46-A1B0-E47C524B8CAE}"/>
+    <workbookView xWindow="800" yWindow="6580" windowWidth="25600" windowHeight="14580" xr2:uid="{EF754327-75C9-0D46-A1B0-E47C524B8CAE}"/>
   </bookViews>
   <sheets>
     <sheet name="before_vaccination" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>who_collected</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>dob</t>
+  </si>
+  <si>
+    <t>mouse_number</t>
+  </si>
+  <si>
+    <t>notes</t>
   </si>
 </sst>
 </file>
@@ -413,19 +419,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC4A97D-A06C-3341-8FDE-C35378163F26}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="17.83203125" customWidth="1"/>
-    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -442,16 +448,22 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
